--- a/Testing_excel.xlsx
+++ b/Testing_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18260\Desktop\SoftWare_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADB1DB-EA91-47C9-8DEB-5B39443BC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E123A63-03F4-47F9-801C-1818E32A6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="352">
   <si>
     <t>测试点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,1156 @@
   </si>
   <si>
     <t>（下单业务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（登录功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他正确输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号/邮箱为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号为11位非数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号为非11位数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码重用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（其他功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开忘记密码页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开注册界面，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码刷新成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpshop_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpshop_login_002</t>
+  </si>
+  <si>
+    <t>tpshop_login_003</t>
+  </si>
+  <si>
+    <t>tpshop_login_004</t>
+  </si>
+  <si>
+    <t>tpshop_login_005</t>
+  </si>
+  <si>
+    <t>tpshop_login_006</t>
+  </si>
+  <si>
+    <t>tpshop_login_007</t>
+  </si>
+  <si>
+    <t>tpshop_login_008</t>
+  </si>
+  <si>
+    <t>tpshop_login_009</t>
+  </si>
+  <si>
+    <t>tpshop_login_010</t>
+  </si>
+  <si>
+    <t>tpshop_login_011</t>
+  </si>
+  <si>
+    <t>tpshop_login_012</t>
+  </si>
+  <si>
+    <t>tpshop_login_013</t>
+  </si>
+  <si>
+    <t>tpshop_login_014</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>用户已注册手机号</t>
+  </si>
+  <si>
+    <t>用户已注册邮箱</t>
+  </si>
+  <si>
+    <t>正确手机号+正确密码</t>
+  </si>
+  <si>
+    <t>登录成功，进入首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 打开登录页面
+2. 输入正确的手机号和密码
+3. 点击登录按钮	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入正确的邮箱和密码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确邮箱+正确密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信账号绑定成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ账号绑定成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 选择QQ登录
+3. 进入QQ授权页面并确认登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 选择微信登录
+3. 进入微信授权页面并确认登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定QQ账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定微信账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 不输入手机号/邮箱，直接输入密码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手机号/邮箱+正确密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"手机号/邮箱不能为空"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册手机号+正确密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"该手机号未注册"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入未注册的邮箱和密码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册邮箱+正确密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"该邮箱未注册"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入包含字母或符号的手机号
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"abc123456789"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"手机号格式错误"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入小于或大于11位的数字手机号
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1234567" 
+ "123456789012"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入正确的手机号/邮箱，不输入密码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确手机号/邮箱+空密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"密码不能为空"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入正确的手机号/邮箱，输入错误密码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确手机号/邮箱+错误密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"密码错误"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入正确的手机号/邮箱和密码，不输入验证码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确手机号/邮箱+
+正确密码+
+空验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"验证码不能为空"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入正确的手机号/邮箱和密码，输入过期验证码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确手机号/邮箱+
+正确密码+
+过期验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"验证码已过期"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入正确的手机号/邮箱和密码，输入已使用的验证码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确手机号/邮箱+
+正确密码+
+已使用的验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，
+提示：
+"验证码已使用，请重新获取"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该邮箱未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前使用过该验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面测试</t>
+  </si>
+  <si>
+    <t>界面布局是否合理</t>
+  </si>
+  <si>
+    <t>正常访问页面</t>
+  </si>
+  <si>
+    <t>文字显示是否清晰</t>
+  </si>
+  <si>
+    <t>不同卖家商品区分</t>
+  </si>
+  <si>
+    <t>功能测试（未登录）</t>
+  </si>
+  <si>
+    <t>未登录状态添加商品</t>
+  </si>
+  <si>
+    <t>未登录状态</t>
+  </si>
+  <si>
+    <t>登录后购物车数据是否正确</t>
+  </si>
+  <si>
+    <t>登录后</t>
+  </si>
+  <si>
+    <t>功能测试（已登录）</t>
+  </si>
+  <si>
+    <t>添加商品</t>
+  </si>
+  <si>
+    <t>正常添加</t>
+  </si>
+  <si>
+    <t>删除商品</t>
+  </si>
+  <si>
+    <t>正常删除</t>
+  </si>
+  <si>
+    <t>修改数量</t>
+  </si>
+  <si>
+    <t>全选</t>
+  </si>
+  <si>
+    <t>结算功能</t>
+  </si>
+  <si>
+    <t>兼容性测试</t>
+  </si>
+  <si>
+    <t>不同浏览器兼容性</t>
+  </si>
+  <si>
+    <t>不同设备兼容性</t>
+  </si>
+  <si>
+    <t>易用性测试</t>
+  </si>
+  <si>
+    <t>删除商品提示</t>
+  </si>
+  <si>
+    <t>回到顶部功能</t>
+  </si>
+  <si>
+    <t>长页面滚动</t>
+  </si>
+  <si>
+    <t>结算按钮固定</t>
+  </si>
+  <si>
+    <t>商品过多</t>
+  </si>
+  <si>
+    <t>性能测试</t>
+  </si>
+  <si>
+    <t>高并发添加商品</t>
+  </si>
+  <si>
+    <t>高并发</t>
+  </si>
+  <si>
+    <t>高并发结算功能</t>
+  </si>
+  <si>
+    <t>安全性测试</t>
+  </si>
+  <si>
+    <t>访问权限控制</t>
+  </si>
+  <si>
+    <t>访问他人购物车</t>
+  </si>
+  <si>
+    <t>数据篡改检测</t>
+  </si>
+  <si>
+    <t>篡改价格数据</t>
+  </si>
+  <si>
+    <t>异常测试</t>
+  </si>
+  <si>
+    <t>网络异常</t>
+  </si>
+  <si>
+    <t>断网/延迟</t>
+  </si>
+  <si>
+    <t>服务器错误</t>
+  </si>
+  <si>
+    <t>服务器异常</t>
+  </si>
+  <si>
+    <t>（购物车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开登录页面
+2. 输入未注册手机号和密码
+3. 点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>项目/模块</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>cart_ui_001</t>
+  </si>
+  <si>
+    <t>页面布局合理，各模块清晰</t>
+  </si>
+  <si>
+    <t>cart_ui_002</t>
+  </si>
+  <si>
+    <t>文字显示清晰，无错位</t>
+  </si>
+  <si>
+    <t>cart_ui_003</t>
+  </si>
+  <si>
+    <t>购物车内有多个卖家商品</t>
+  </si>
+  <si>
+    <t>商品按照卖家分类显示</t>
+  </si>
+  <si>
+    <t>cart_func_001</t>
+  </si>
+  <si>
+    <t>未登录</t>
+  </si>
+  <si>
+    <t>任意商品</t>
+  </si>
+  <si>
+    <t>提示用户登录，购物车不添加商品</t>
+  </si>
+  <si>
+    <t>cart_func_002</t>
+  </si>
+  <si>
+    <t>未登录状态添加了商品，后续登录</t>
+  </si>
+  <si>
+    <t>之前未登录时添加的商品</t>
+  </si>
+  <si>
+    <t>购物车显示未登录时添加的商品</t>
+  </si>
+  <si>
+    <t>cart_func_003</t>
+  </si>
+  <si>
+    <t>已登录</t>
+  </si>
+  <si>
+    <t>商品成功加入购物车</t>
+  </si>
+  <si>
+    <t>cart_func_004</t>
+  </si>
+  <si>
+    <t>购物车已有商品</t>
+  </si>
+  <si>
+    <t>商品成功删除，购物车列表更新</t>
+  </si>
+  <si>
+    <t>cart_func_005</t>
+  </si>
+  <si>
+    <t>1. 在购物车修改商品数量 2. 点击确认或自动保存</t>
+  </si>
+  <si>
+    <t>商品数量变化</t>
+  </si>
+  <si>
+    <t>购物车内商品数量正确更新</t>
+  </si>
+  <si>
+    <t>cart_func_006</t>
+  </si>
+  <si>
+    <t>购物车内有多个商品</t>
+  </si>
+  <si>
+    <t>购物车内所有商品被选中</t>
+  </si>
+  <si>
+    <t>cart_func_007</t>
+  </si>
+  <si>
+    <t>购物车内有选中商品</t>
+  </si>
+  <si>
+    <t>购物车选中商品</t>
+  </si>
+  <si>
+    <t>成功进入订单确认页面</t>
+  </si>
+  <si>
+    <t>cart_compat_001</t>
+  </si>
+  <si>
+    <t>使用不同浏览器</t>
+  </si>
+  <si>
+    <t>Chrome、Firefox、Edge等</t>
+  </si>
+  <si>
+    <t>页面正常显示，功能正常</t>
+  </si>
+  <si>
+    <t>cart_compat_002</t>
+  </si>
+  <si>
+    <t>使用不同设备</t>
+  </si>
+  <si>
+    <t>PC、手机、平板</t>
+  </si>
+  <si>
+    <t>页面正常适配不同设备</t>
+  </si>
+  <si>
+    <t>cart_usability_001</t>
+  </si>
+  <si>
+    <t>购物车内有商品</t>
+  </si>
+  <si>
+    <t>购物车内已有商品</t>
+  </si>
+  <si>
+    <t>删除前提示用户确认</t>
+  </si>
+  <si>
+    <t>cart_usability_002</t>
+  </si>
+  <si>
+    <t>购物车商品较多</t>
+  </si>
+  <si>
+    <t>页面底部有“回到顶部”按钮</t>
+  </si>
+  <si>
+    <t>cart_usability_003</t>
+  </si>
+  <si>
+    <t>结算按钮始终可见</t>
+  </si>
+  <si>
+    <t>cart_performance_001</t>
+  </si>
+  <si>
+    <t>高并发环境</t>
+  </si>
+  <si>
+    <t>1. 多用户同时添加商品到购物车</t>
+  </si>
+  <si>
+    <t>大量用户同时操作</t>
+  </si>
+  <si>
+    <t>系统响应正常，无明显延迟</t>
+  </si>
+  <si>
+    <t>cart_performance_002</t>
+  </si>
+  <si>
+    <t>1. 多用户同时进行购物车结算</t>
+  </si>
+  <si>
+    <t>订单生成正常，无卡顿</t>
+  </si>
+  <si>
+    <t>cart_security_001</t>
+  </si>
+  <si>
+    <t>登录不同账号</t>
+  </si>
+  <si>
+    <t>1. 尝试访问他人购物车数据</t>
+  </si>
+  <si>
+    <t>他人购物车数据</t>
+  </si>
+  <si>
+    <t>无法查看他人购物车，提示无权限</t>
+  </si>
+  <si>
+    <t>cart_security_002</t>
+  </si>
+  <si>
+    <t>登录已购商品账号</t>
+  </si>
+  <si>
+    <t>篡改后的价格数据</t>
+  </si>
+  <si>
+    <t>订单结算时仍使用正确价格</t>
+  </si>
+  <si>
+    <t>cart_exception_001</t>
+  </si>
+  <si>
+    <t>网络断开或延迟</t>
+  </si>
+  <si>
+    <t>无网络</t>
+  </si>
+  <si>
+    <t>断网时操作失败，恢复网络后可继续</t>
+  </si>
+  <si>
+    <t>cart_exception_002</t>
+  </si>
+  <si>
+    <t>1. 购物车操作时服务器宕机</t>
+  </si>
+  <si>
+    <t>友好提示服务器错误，操作失败</t>
+  </si>
+  <si>
+    <t>1. 打开购物车页面
+ 2. 观察界面布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开购物车页面 
+2. 检查商品名称、价格、数量等是否清晰可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开购物车页面
+2. 观察不同卖家的商品分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 选择商品 
+2. 点击“加入购物车”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录账号 
+2. 打开购物车页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 选择购物车中的商品 
+2. 点击“删除”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 勾选“全选”按钮 
+2. 观察所有商品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击“结算” 
+2. 进入订单确认页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用不同浏览器打开购物车 
+2. 观察页面是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在PC、手机等设备上打开购物车页面
+ 2. 观察页面显示是否适配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击删除按钮 
+2. 观察是否有确认提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 滚动页面到底部 
+2. 观察是否有“回到顶部”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 滚动页面 
+2. 观察结算按钮位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修改请求参数中的商品价格 
+2. 提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 断开网络 
+2. 添加/删除商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他功能</t>
+  </si>
+  <si>
+    <t>其他功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_func_001</t>
+  </si>
+  <si>
+    <t>打开忘记密码页面</t>
+  </si>
+  <si>
+    <t>成功跳转到忘记密码页面</t>
+  </si>
+  <si>
+    <t>other_func_002</t>
+  </si>
+  <si>
+    <t>打开注册界面</t>
+  </si>
+  <si>
+    <t>成功跳转到注册页面</t>
+  </si>
+  <si>
+    <t>other_func_003</t>
+  </si>
+  <si>
+    <t>验证码刷新成功</t>
+  </si>
+  <si>
+    <t>需要验证码的页面</t>
+  </si>
+  <si>
+    <t>1. 访问登录页面 
+2. 点击“忘记密码”链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 访问登录页面 
+2. 点击“注册”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入验证码页面 
+2. 点击刷新验证码按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码成功刷新，
+图像/文本更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（支付）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功（货到付款）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功（银联支付）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功（财付通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功（支付宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功（微信）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认选择货到付款
+2.提示：订单提交成功，您的商品我们将第一时间给您发货
+3.付款金额保留两位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单金额0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝付款失败一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（订单金额0.00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（超时30分钟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（重复支付）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（账号被锁定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（余额不足）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（错误的二维码扫描）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（取消支付）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败（网络故障）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间29min
+密码已错误1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间30min
+订单价格发生变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择支付方式
+2.支付操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已有订单001且未支付
+2.已打开订单001支付页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已有订单002且未支付，订单金额0.00
+2.已打开订单002支付页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已有订单003且已支付
+2.打开我的订单-
+待支付列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式：货到付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败，
+提示订单金额最少为0. 01元或者不进入订单支付页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败，待支付订单列表
+中无订单003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功，提示:订单提交成功，
+我们将在第一时间给你发货!
+①默认选中货到付款
+②订单金额默认保留两位小数
+③订单状态为待发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（非功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示操作正常（谷歌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面布局与原型一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有业务和单功能显示及操作正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.运行所有业务
+2.运行所有单功能/页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目功能测试完毕
+2.安装最新的谷歌浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目功能测试完毕
+2.安装最新的火狐浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目功能测试完毕
+2.安装最新的Edge浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目功能测试完毕
+2.安装最新的苹果浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpshop_not_function_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpshop_not_function_002</t>
+  </si>
+  <si>
+    <t>tpshop_not_function_003</t>
+  </si>
+  <si>
+    <t>tpshop_not_function_004</t>
+  </si>
+  <si>
+    <t>显示操作正常（火狐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示操作正常（Edge）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示操作正常（苹果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpshop_not_function_005</t>
+  </si>
+  <si>
+    <t>1.准备所有原型图和需求文档
+2.项目功能已测试完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.运行页面和交互窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面布局颜色与原型图一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +1441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +1460,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -334,38 +1490,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,228 +1919,2245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="10" width="25.77734375" customWidth="1"/>
+    <col min="2" max="11" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="11" t="s">
         <v>47</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B112" s="13"/>
+      <c r="C112" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B113" s="13"/>
+      <c r="C113" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B114" s="13"/>
+      <c r="C114" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="27"/>
+      <c r="B116" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="27"/>
+      <c r="B117" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="27"/>
+      <c r="B118" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="27"/>
+      <c r="B119" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="27"/>
+      <c r="B120" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I123" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I125" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="G127" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H127" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="I127" s="30" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
